--- a/sample/data_1.xlsx
+++ b/sample/data_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5111" uniqueCount="3569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="3565">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -10537,16 +10537,43 @@
     <t xml:space="preserve">Attribution</t>
   </si>
   <si>
-    <t xml:space="preserve">esri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESRI World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://server.arcgisonline.com/ArcGIS/rest/services/World_Imagery/MapServer/tile/{z}/{y}/{x}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiles &amp;copy; Esri &amp;mdash; Source: Esri, i-cubed, USDA, USGS, AEX, GeoEye, Getmapping, Aerogrid, IGN, IGP, UPR-EGP, and the GIS User Community</t>
+    <t xml:space="preserve">opentopo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenTopoMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://{s}.tile.opentopomap.org/{z}/{x}/{y}.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Map data: &amp;copy; &lt;a href="https://www.openstreetmap.org/copyright"&gt;OpenStreetMap&lt;/a&gt; contributors, &lt;a href="http://viewfinderpanoramas.org"&gt;SRTM&lt;/a&gt; | Map style: &amp;copy; &lt;a href="https://opentopomap.org"&gt;OpenTopoMap&lt;/a&gt; (&lt;a href="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;CC-BY-SA&lt;/a&gt;)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">osm</t>
@@ -10603,22 +10630,10 @@
     <t xml:space="preserve">Oddziały PGL LP</t>
   </si>
   <si>
-    <t xml:space="preserve">bdl2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oddziały poza PGL LP wg PUL</t>
-  </si>
-  <si>
     <t xml:space="preserve">bdl1</t>
   </si>
   <si>
     <t xml:space="preserve">Wydzielenia PGL LP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdl0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wydzielenia poza PGL LP wg PUL</t>
   </si>
   <si>
     <t xml:space="preserve">Icon name</t>
@@ -11268,7 +11283,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11277,7 +11292,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="56.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="56.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="37.97"/>
@@ -11285,10 +11300,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="35.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="65.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="65.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="181.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="18" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="3" width="11.54"/>
@@ -35277,7 +35292,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35285,7 +35300,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="86.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="40" width="141.49"/>
@@ -35398,7 +35413,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://server.arcgisonline.com/ArcGIS/rest/services/World_Imagery/MapServer/tile/{z}/{y}/{x}"/>
+    <hyperlink ref="G2" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/3.0/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -35417,15 +35432,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="32.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="80.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="80.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="13.24"/>
@@ -35582,7 +35597,7 @@
         <v>3516</v>
       </c>
       <c r="D6" s="16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>3517</v>
@@ -35595,62 +35610,1030 @@
       </c>
       <c r="AMJ6" s="43"/>
     </row>
-    <row r="7" s="41" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>3527</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>3528</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>3516</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>3517</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>3518</v>
-      </c>
-      <c r="AMJ7" s="43"/>
-    </row>
-    <row r="8" s="41" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>3529</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>3530</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>3516</v>
-      </c>
-      <c r="D8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>3517</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>3518</v>
-      </c>
-      <c r="AMJ8" s="43"/>
-    </row>
-    <row r="9" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMJ9" s="43"/>
-    </row>
-    <row r="10" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMJ10" s="43"/>
-    </row>
-    <row r="11" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMJ11" s="43"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
+      <c r="IU7" s="0"/>
+      <c r="IV7" s="0"/>
+      <c r="IW7" s="0"/>
+      <c r="IX7" s="0"/>
+      <c r="IY7" s="0"/>
+      <c r="IZ7" s="0"/>
+      <c r="JA7" s="0"/>
+      <c r="JB7" s="0"/>
+      <c r="JC7" s="0"/>
+      <c r="JD7" s="0"/>
+      <c r="JE7" s="0"/>
+      <c r="JF7" s="0"/>
+      <c r="JG7" s="0"/>
+      <c r="JH7" s="0"/>
+      <c r="JI7" s="0"/>
+      <c r="JJ7" s="0"/>
+      <c r="JK7" s="0"/>
+      <c r="JL7" s="0"/>
+      <c r="JM7" s="0"/>
+      <c r="JN7" s="0"/>
+      <c r="JO7" s="0"/>
+      <c r="JP7" s="0"/>
+      <c r="JQ7" s="0"/>
+      <c r="JR7" s="0"/>
+      <c r="JS7" s="0"/>
+      <c r="JT7" s="0"/>
+      <c r="JU7" s="0"/>
+      <c r="JV7" s="0"/>
+      <c r="JW7" s="0"/>
+      <c r="JX7" s="0"/>
+      <c r="JY7" s="0"/>
+      <c r="JZ7" s="0"/>
+      <c r="KA7" s="0"/>
+      <c r="KB7" s="0"/>
+      <c r="KC7" s="0"/>
+      <c r="KD7" s="0"/>
+      <c r="KE7" s="0"/>
+      <c r="KF7" s="0"/>
+      <c r="KG7" s="0"/>
+      <c r="KH7" s="0"/>
+      <c r="KI7" s="0"/>
+      <c r="KJ7" s="0"/>
+      <c r="KK7" s="0"/>
+      <c r="KL7" s="0"/>
+      <c r="KM7" s="0"/>
+      <c r="KN7" s="0"/>
+      <c r="KO7" s="0"/>
+      <c r="KP7" s="0"/>
+      <c r="KQ7" s="0"/>
+      <c r="KR7" s="0"/>
+      <c r="KS7" s="0"/>
+      <c r="KT7" s="0"/>
+      <c r="KU7" s="0"/>
+      <c r="KV7" s="0"/>
+      <c r="KW7" s="0"/>
+      <c r="KX7" s="0"/>
+      <c r="KY7" s="0"/>
+      <c r="KZ7" s="0"/>
+      <c r="LA7" s="0"/>
+      <c r="LB7" s="0"/>
+      <c r="LC7" s="0"/>
+      <c r="LD7" s="0"/>
+      <c r="LE7" s="0"/>
+      <c r="LF7" s="0"/>
+      <c r="LG7" s="0"/>
+      <c r="LH7" s="0"/>
+      <c r="LI7" s="0"/>
+      <c r="LJ7" s="0"/>
+      <c r="LK7" s="0"/>
+      <c r="LL7" s="0"/>
+      <c r="LM7" s="0"/>
+      <c r="LN7" s="0"/>
+      <c r="LO7" s="0"/>
+      <c r="LP7" s="0"/>
+      <c r="LQ7" s="0"/>
+      <c r="LR7" s="0"/>
+      <c r="LS7" s="0"/>
+      <c r="LT7" s="0"/>
+      <c r="LU7" s="0"/>
+      <c r="LV7" s="0"/>
+      <c r="LW7" s="0"/>
+      <c r="LX7" s="0"/>
+      <c r="LY7" s="0"/>
+      <c r="LZ7" s="0"/>
+      <c r="MA7" s="0"/>
+      <c r="MB7" s="0"/>
+      <c r="MC7" s="0"/>
+      <c r="MD7" s="0"/>
+      <c r="ME7" s="0"/>
+      <c r="MF7" s="0"/>
+      <c r="MG7" s="0"/>
+      <c r="MH7" s="0"/>
+      <c r="MI7" s="0"/>
+      <c r="MJ7" s="0"/>
+      <c r="MK7" s="0"/>
+      <c r="ML7" s="0"/>
+      <c r="MM7" s="0"/>
+      <c r="MN7" s="0"/>
+      <c r="MO7" s="0"/>
+      <c r="MP7" s="0"/>
+      <c r="MQ7" s="0"/>
+      <c r="MR7" s="0"/>
+      <c r="MS7" s="0"/>
+      <c r="MT7" s="0"/>
+      <c r="MU7" s="0"/>
+      <c r="MV7" s="0"/>
+      <c r="MW7" s="0"/>
+      <c r="MX7" s="0"/>
+      <c r="MY7" s="0"/>
+      <c r="MZ7" s="0"/>
+      <c r="NA7" s="0"/>
+      <c r="NB7" s="0"/>
+      <c r="NC7" s="0"/>
+      <c r="ND7" s="0"/>
+      <c r="NE7" s="0"/>
+      <c r="NF7" s="0"/>
+      <c r="NG7" s="0"/>
+      <c r="NH7" s="0"/>
+      <c r="NI7" s="0"/>
+      <c r="NJ7" s="0"/>
+      <c r="NK7" s="0"/>
+      <c r="NL7" s="0"/>
+      <c r="NM7" s="0"/>
+      <c r="NN7" s="0"/>
+      <c r="NO7" s="0"/>
+      <c r="NP7" s="0"/>
+      <c r="NQ7" s="0"/>
+      <c r="NR7" s="0"/>
+      <c r="NS7" s="0"/>
+      <c r="NT7" s="0"/>
+      <c r="NU7" s="0"/>
+      <c r="NV7" s="0"/>
+      <c r="NW7" s="0"/>
+      <c r="NX7" s="0"/>
+      <c r="NY7" s="0"/>
+      <c r="NZ7" s="0"/>
+      <c r="OA7" s="0"/>
+      <c r="OB7" s="0"/>
+      <c r="OC7" s="0"/>
+      <c r="OD7" s="0"/>
+      <c r="OE7" s="0"/>
+      <c r="OF7" s="0"/>
+      <c r="OG7" s="0"/>
+      <c r="OH7" s="0"/>
+      <c r="OI7" s="0"/>
+      <c r="OJ7" s="0"/>
+      <c r="OK7" s="0"/>
+      <c r="OL7" s="0"/>
+      <c r="OM7" s="0"/>
+      <c r="ON7" s="0"/>
+      <c r="OO7" s="0"/>
+      <c r="OP7" s="0"/>
+      <c r="OQ7" s="0"/>
+      <c r="OR7" s="0"/>
+      <c r="OS7" s="0"/>
+      <c r="OT7" s="0"/>
+      <c r="OU7" s="0"/>
+      <c r="OV7" s="0"/>
+      <c r="OW7" s="0"/>
+      <c r="OX7" s="0"/>
+      <c r="OY7" s="0"/>
+      <c r="OZ7" s="0"/>
+      <c r="PA7" s="0"/>
+      <c r="PB7" s="0"/>
+      <c r="PC7" s="0"/>
+      <c r="PD7" s="0"/>
+      <c r="PE7" s="0"/>
+      <c r="PF7" s="0"/>
+      <c r="PG7" s="0"/>
+      <c r="PH7" s="0"/>
+      <c r="PI7" s="0"/>
+      <c r="PJ7" s="0"/>
+      <c r="PK7" s="0"/>
+      <c r="PL7" s="0"/>
+      <c r="PM7" s="0"/>
+      <c r="PN7" s="0"/>
+      <c r="PO7" s="0"/>
+      <c r="PP7" s="0"/>
+      <c r="PQ7" s="0"/>
+      <c r="PR7" s="0"/>
+      <c r="PS7" s="0"/>
+      <c r="PT7" s="0"/>
+      <c r="PU7" s="0"/>
+      <c r="PV7" s="0"/>
+      <c r="PW7" s="0"/>
+      <c r="PX7" s="0"/>
+      <c r="PY7" s="0"/>
+      <c r="PZ7" s="0"/>
+      <c r="QA7" s="0"/>
+      <c r="QB7" s="0"/>
+      <c r="QC7" s="0"/>
+      <c r="QD7" s="0"/>
+      <c r="QE7" s="0"/>
+      <c r="QF7" s="0"/>
+      <c r="QG7" s="0"/>
+      <c r="QH7" s="0"/>
+      <c r="QI7" s="0"/>
+      <c r="QJ7" s="0"/>
+      <c r="QK7" s="0"/>
+      <c r="QL7" s="0"/>
+      <c r="QM7" s="0"/>
+      <c r="QN7" s="0"/>
+      <c r="QO7" s="0"/>
+      <c r="QP7" s="0"/>
+      <c r="QQ7" s="0"/>
+      <c r="QR7" s="0"/>
+      <c r="QS7" s="0"/>
+      <c r="QT7" s="0"/>
+      <c r="QU7" s="0"/>
+      <c r="QV7" s="0"/>
+      <c r="QW7" s="0"/>
+      <c r="QX7" s="0"/>
+      <c r="QY7" s="0"/>
+      <c r="QZ7" s="0"/>
+      <c r="RA7" s="0"/>
+      <c r="RB7" s="0"/>
+      <c r="RC7" s="0"/>
+      <c r="RD7" s="0"/>
+      <c r="RE7" s="0"/>
+      <c r="RF7" s="0"/>
+      <c r="RG7" s="0"/>
+      <c r="RH7" s="0"/>
+      <c r="RI7" s="0"/>
+      <c r="RJ7" s="0"/>
+      <c r="RK7" s="0"/>
+      <c r="RL7" s="0"/>
+      <c r="RM7" s="0"/>
+      <c r="RN7" s="0"/>
+      <c r="RO7" s="0"/>
+      <c r="RP7" s="0"/>
+      <c r="RQ7" s="0"/>
+      <c r="RR7" s="0"/>
+      <c r="RS7" s="0"/>
+      <c r="RT7" s="0"/>
+      <c r="RU7" s="0"/>
+      <c r="RV7" s="0"/>
+      <c r="RW7" s="0"/>
+      <c r="RX7" s="0"/>
+      <c r="RY7" s="0"/>
+      <c r="RZ7" s="0"/>
+      <c r="SA7" s="0"/>
+      <c r="SB7" s="0"/>
+      <c r="SC7" s="0"/>
+      <c r="SD7" s="0"/>
+      <c r="SE7" s="0"/>
+      <c r="SF7" s="0"/>
+      <c r="SG7" s="0"/>
+      <c r="SH7" s="0"/>
+      <c r="SI7" s="0"/>
+      <c r="SJ7" s="0"/>
+      <c r="SK7" s="0"/>
+      <c r="SL7" s="0"/>
+      <c r="SM7" s="0"/>
+      <c r="SN7" s="0"/>
+      <c r="SO7" s="0"/>
+      <c r="SP7" s="0"/>
+      <c r="SQ7" s="0"/>
+      <c r="SR7" s="0"/>
+      <c r="SS7" s="0"/>
+      <c r="ST7" s="0"/>
+      <c r="SU7" s="0"/>
+      <c r="SV7" s="0"/>
+      <c r="SW7" s="0"/>
+      <c r="SX7" s="0"/>
+      <c r="SY7" s="0"/>
+      <c r="SZ7" s="0"/>
+      <c r="TA7" s="0"/>
+      <c r="TB7" s="0"/>
+      <c r="TC7" s="0"/>
+      <c r="TD7" s="0"/>
+      <c r="TE7" s="0"/>
+      <c r="TF7" s="0"/>
+      <c r="TG7" s="0"/>
+      <c r="TH7" s="0"/>
+      <c r="TI7" s="0"/>
+      <c r="TJ7" s="0"/>
+      <c r="TK7" s="0"/>
+      <c r="TL7" s="0"/>
+      <c r="TM7" s="0"/>
+      <c r="TN7" s="0"/>
+      <c r="TO7" s="0"/>
+      <c r="TP7" s="0"/>
+      <c r="TQ7" s="0"/>
+      <c r="TR7" s="0"/>
+      <c r="TS7" s="0"/>
+      <c r="TT7" s="0"/>
+      <c r="TU7" s="0"/>
+      <c r="TV7" s="0"/>
+      <c r="TW7" s="0"/>
+      <c r="TX7" s="0"/>
+      <c r="TY7" s="0"/>
+      <c r="TZ7" s="0"/>
+      <c r="UA7" s="0"/>
+      <c r="UB7" s="0"/>
+      <c r="UC7" s="0"/>
+      <c r="UD7" s="0"/>
+      <c r="UE7" s="0"/>
+      <c r="UF7" s="0"/>
+      <c r="UG7" s="0"/>
+      <c r="UH7" s="0"/>
+      <c r="UI7" s="0"/>
+      <c r="UJ7" s="0"/>
+      <c r="UK7" s="0"/>
+      <c r="UL7" s="0"/>
+      <c r="UM7" s="0"/>
+      <c r="UN7" s="0"/>
+      <c r="UO7" s="0"/>
+      <c r="UP7" s="0"/>
+      <c r="UQ7" s="0"/>
+      <c r="UR7" s="0"/>
+      <c r="US7" s="0"/>
+      <c r="UT7" s="0"/>
+      <c r="UU7" s="0"/>
+      <c r="UV7" s="0"/>
+      <c r="UW7" s="0"/>
+      <c r="UX7" s="0"/>
+      <c r="UY7" s="0"/>
+      <c r="UZ7" s="0"/>
+      <c r="VA7" s="0"/>
+      <c r="VB7" s="0"/>
+      <c r="VC7" s="0"/>
+      <c r="VD7" s="0"/>
+      <c r="VE7" s="0"/>
+      <c r="VF7" s="0"/>
+      <c r="VG7" s="0"/>
+      <c r="VH7" s="0"/>
+      <c r="VI7" s="0"/>
+      <c r="VJ7" s="0"/>
+      <c r="VK7" s="0"/>
+      <c r="VL7" s="0"/>
+      <c r="VM7" s="0"/>
+      <c r="VN7" s="0"/>
+      <c r="VO7" s="0"/>
+      <c r="VP7" s="0"/>
+      <c r="VQ7" s="0"/>
+      <c r="VR7" s="0"/>
+      <c r="VS7" s="0"/>
+      <c r="VT7" s="0"/>
+      <c r="VU7" s="0"/>
+      <c r="VV7" s="0"/>
+      <c r="VW7" s="0"/>
+      <c r="VX7" s="0"/>
+      <c r="VY7" s="0"/>
+      <c r="VZ7" s="0"/>
+      <c r="WA7" s="0"/>
+      <c r="WB7" s="0"/>
+      <c r="WC7" s="0"/>
+      <c r="WD7" s="0"/>
+      <c r="WE7" s="0"/>
+      <c r="WF7" s="0"/>
+      <c r="WG7" s="0"/>
+      <c r="WH7" s="0"/>
+      <c r="WI7" s="0"/>
+      <c r="WJ7" s="0"/>
+      <c r="WK7" s="0"/>
+      <c r="WL7" s="0"/>
+      <c r="WM7" s="0"/>
+      <c r="WN7" s="0"/>
+      <c r="WO7" s="0"/>
+      <c r="WP7" s="0"/>
+      <c r="WQ7" s="0"/>
+      <c r="WR7" s="0"/>
+      <c r="WS7" s="0"/>
+      <c r="WT7" s="0"/>
+      <c r="WU7" s="0"/>
+      <c r="WV7" s="0"/>
+      <c r="WW7" s="0"/>
+      <c r="WX7" s="0"/>
+      <c r="WY7" s="0"/>
+      <c r="WZ7" s="0"/>
+      <c r="XA7" s="0"/>
+      <c r="XB7" s="0"/>
+      <c r="XC7" s="0"/>
+      <c r="XD7" s="0"/>
+      <c r="XE7" s="0"/>
+      <c r="XF7" s="0"/>
+      <c r="XG7" s="0"/>
+      <c r="XH7" s="0"/>
+      <c r="XI7" s="0"/>
+      <c r="XJ7" s="0"/>
+      <c r="XK7" s="0"/>
+      <c r="XL7" s="0"/>
+      <c r="XM7" s="0"/>
+      <c r="XN7" s="0"/>
+      <c r="XO7" s="0"/>
+      <c r="XP7" s="0"/>
+      <c r="XQ7" s="0"/>
+      <c r="XR7" s="0"/>
+      <c r="XS7" s="0"/>
+      <c r="XT7" s="0"/>
+      <c r="XU7" s="0"/>
+      <c r="XV7" s="0"/>
+      <c r="XW7" s="0"/>
+      <c r="XX7" s="0"/>
+      <c r="XY7" s="0"/>
+      <c r="XZ7" s="0"/>
+      <c r="YA7" s="0"/>
+      <c r="YB7" s="0"/>
+      <c r="YC7" s="0"/>
+      <c r="YD7" s="0"/>
+      <c r="YE7" s="0"/>
+      <c r="YF7" s="0"/>
+      <c r="YG7" s="0"/>
+      <c r="YH7" s="0"/>
+      <c r="YI7" s="0"/>
+      <c r="YJ7" s="0"/>
+      <c r="YK7" s="0"/>
+      <c r="YL7" s="0"/>
+      <c r="YM7" s="0"/>
+      <c r="YN7" s="0"/>
+      <c r="YO7" s="0"/>
+      <c r="YP7" s="0"/>
+      <c r="YQ7" s="0"/>
+      <c r="YR7" s="0"/>
+      <c r="YS7" s="0"/>
+      <c r="YT7" s="0"/>
+      <c r="YU7" s="0"/>
+      <c r="YV7" s="0"/>
+      <c r="YW7" s="0"/>
+      <c r="YX7" s="0"/>
+      <c r="YY7" s="0"/>
+      <c r="YZ7" s="0"/>
+      <c r="ZA7" s="0"/>
+      <c r="ZB7" s="0"/>
+      <c r="ZC7" s="0"/>
+      <c r="ZD7" s="0"/>
+      <c r="ZE7" s="0"/>
+      <c r="ZF7" s="0"/>
+      <c r="ZG7" s="0"/>
+      <c r="ZH7" s="0"/>
+      <c r="ZI7" s="0"/>
+      <c r="ZJ7" s="0"/>
+      <c r="ZK7" s="0"/>
+      <c r="ZL7" s="0"/>
+      <c r="ZM7" s="0"/>
+      <c r="ZN7" s="0"/>
+      <c r="ZO7" s="0"/>
+      <c r="ZP7" s="0"/>
+      <c r="ZQ7" s="0"/>
+      <c r="ZR7" s="0"/>
+      <c r="ZS7" s="0"/>
+      <c r="ZT7" s="0"/>
+      <c r="ZU7" s="0"/>
+      <c r="ZV7" s="0"/>
+      <c r="ZW7" s="0"/>
+      <c r="ZX7" s="0"/>
+      <c r="ZY7" s="0"/>
+      <c r="ZZ7" s="0"/>
+      <c r="AAA7" s="0"/>
+      <c r="AAB7" s="0"/>
+      <c r="AAC7" s="0"/>
+      <c r="AAD7" s="0"/>
+      <c r="AAE7" s="0"/>
+      <c r="AAF7" s="0"/>
+      <c r="AAG7" s="0"/>
+      <c r="AAH7" s="0"/>
+      <c r="AAI7" s="0"/>
+      <c r="AAJ7" s="0"/>
+      <c r="AAK7" s="0"/>
+      <c r="AAL7" s="0"/>
+      <c r="AAM7" s="0"/>
+      <c r="AAN7" s="0"/>
+      <c r="AAO7" s="0"/>
+      <c r="AAP7" s="0"/>
+      <c r="AAQ7" s="0"/>
+      <c r="AAR7" s="0"/>
+      <c r="AAS7" s="0"/>
+      <c r="AAT7" s="0"/>
+      <c r="AAU7" s="0"/>
+      <c r="AAV7" s="0"/>
+      <c r="AAW7" s="0"/>
+      <c r="AAX7" s="0"/>
+      <c r="AAY7" s="0"/>
+      <c r="AAZ7" s="0"/>
+      <c r="ABA7" s="0"/>
+      <c r="ABB7" s="0"/>
+      <c r="ABC7" s="0"/>
+      <c r="ABD7" s="0"/>
+      <c r="ABE7" s="0"/>
+      <c r="ABF7" s="0"/>
+      <c r="ABG7" s="0"/>
+      <c r="ABH7" s="0"/>
+      <c r="ABI7" s="0"/>
+      <c r="ABJ7" s="0"/>
+      <c r="ABK7" s="0"/>
+      <c r="ABL7" s="0"/>
+      <c r="ABM7" s="0"/>
+      <c r="ABN7" s="0"/>
+      <c r="ABO7" s="0"/>
+      <c r="ABP7" s="0"/>
+      <c r="ABQ7" s="0"/>
+      <c r="ABR7" s="0"/>
+      <c r="ABS7" s="0"/>
+      <c r="ABT7" s="0"/>
+      <c r="ABU7" s="0"/>
+      <c r="ABV7" s="0"/>
+      <c r="ABW7" s="0"/>
+      <c r="ABX7" s="0"/>
+      <c r="ABY7" s="0"/>
+      <c r="ABZ7" s="0"/>
+      <c r="ACA7" s="0"/>
+      <c r="ACB7" s="0"/>
+      <c r="ACC7" s="0"/>
+      <c r="ACD7" s="0"/>
+      <c r="ACE7" s="0"/>
+      <c r="ACF7" s="0"/>
+      <c r="ACG7" s="0"/>
+      <c r="ACH7" s="0"/>
+      <c r="ACI7" s="0"/>
+      <c r="ACJ7" s="0"/>
+      <c r="ACK7" s="0"/>
+      <c r="ACL7" s="0"/>
+      <c r="ACM7" s="0"/>
+      <c r="ACN7" s="0"/>
+      <c r="ACO7" s="0"/>
+      <c r="ACP7" s="0"/>
+      <c r="ACQ7" s="0"/>
+      <c r="ACR7" s="0"/>
+      <c r="ACS7" s="0"/>
+      <c r="ACT7" s="0"/>
+      <c r="ACU7" s="0"/>
+      <c r="ACV7" s="0"/>
+      <c r="ACW7" s="0"/>
+      <c r="ACX7" s="0"/>
+      <c r="ACY7" s="0"/>
+      <c r="ACZ7" s="0"/>
+      <c r="ADA7" s="0"/>
+      <c r="ADB7" s="0"/>
+      <c r="ADC7" s="0"/>
+      <c r="ADD7" s="0"/>
+      <c r="ADE7" s="0"/>
+      <c r="ADF7" s="0"/>
+      <c r="ADG7" s="0"/>
+      <c r="ADH7" s="0"/>
+      <c r="ADI7" s="0"/>
+      <c r="ADJ7" s="0"/>
+      <c r="ADK7" s="0"/>
+      <c r="ADL7" s="0"/>
+      <c r="ADM7" s="0"/>
+      <c r="ADN7" s="0"/>
+      <c r="ADO7" s="0"/>
+      <c r="ADP7" s="0"/>
+      <c r="ADQ7" s="0"/>
+      <c r="ADR7" s="0"/>
+      <c r="ADS7" s="0"/>
+      <c r="ADT7" s="0"/>
+      <c r="ADU7" s="0"/>
+      <c r="ADV7" s="0"/>
+      <c r="ADW7" s="0"/>
+      <c r="ADX7" s="0"/>
+      <c r="ADY7" s="0"/>
+      <c r="ADZ7" s="0"/>
+      <c r="AEA7" s="0"/>
+      <c r="AEB7" s="0"/>
+      <c r="AEC7" s="0"/>
+      <c r="AED7" s="0"/>
+      <c r="AEE7" s="0"/>
+      <c r="AEF7" s="0"/>
+      <c r="AEG7" s="0"/>
+      <c r="AEH7" s="0"/>
+      <c r="AEI7" s="0"/>
+      <c r="AEJ7" s="0"/>
+      <c r="AEK7" s="0"/>
+      <c r="AEL7" s="0"/>
+      <c r="AEM7" s="0"/>
+      <c r="AEN7" s="0"/>
+      <c r="AEO7" s="0"/>
+      <c r="AEP7" s="0"/>
+      <c r="AEQ7" s="0"/>
+      <c r="AER7" s="0"/>
+      <c r="AES7" s="0"/>
+      <c r="AET7" s="0"/>
+      <c r="AEU7" s="0"/>
+      <c r="AEV7" s="0"/>
+      <c r="AEW7" s="0"/>
+      <c r="AEX7" s="0"/>
+      <c r="AEY7" s="0"/>
+      <c r="AEZ7" s="0"/>
+      <c r="AFA7" s="0"/>
+      <c r="AFB7" s="0"/>
+      <c r="AFC7" s="0"/>
+      <c r="AFD7" s="0"/>
+      <c r="AFE7" s="0"/>
+      <c r="AFF7" s="0"/>
+      <c r="AFG7" s="0"/>
+      <c r="AFH7" s="0"/>
+      <c r="AFI7" s="0"/>
+      <c r="AFJ7" s="0"/>
+      <c r="AFK7" s="0"/>
+      <c r="AFL7" s="0"/>
+      <c r="AFM7" s="0"/>
+      <c r="AFN7" s="0"/>
+      <c r="AFO7" s="0"/>
+      <c r="AFP7" s="0"/>
+      <c r="AFQ7" s="0"/>
+      <c r="AFR7" s="0"/>
+      <c r="AFS7" s="0"/>
+      <c r="AFT7" s="0"/>
+      <c r="AFU7" s="0"/>
+      <c r="AFV7" s="0"/>
+      <c r="AFW7" s="0"/>
+      <c r="AFX7" s="0"/>
+      <c r="AFY7" s="0"/>
+      <c r="AFZ7" s="0"/>
+      <c r="AGA7" s="0"/>
+      <c r="AGB7" s="0"/>
+      <c r="AGC7" s="0"/>
+      <c r="AGD7" s="0"/>
+      <c r="AGE7" s="0"/>
+      <c r="AGF7" s="0"/>
+      <c r="AGG7" s="0"/>
+      <c r="AGH7" s="0"/>
+      <c r="AGI7" s="0"/>
+      <c r="AGJ7" s="0"/>
+      <c r="AGK7" s="0"/>
+      <c r="AGL7" s="0"/>
+      <c r="AGM7" s="0"/>
+      <c r="AGN7" s="0"/>
+      <c r="AGO7" s="0"/>
+      <c r="AGP7" s="0"/>
+      <c r="AGQ7" s="0"/>
+      <c r="AGR7" s="0"/>
+      <c r="AGS7" s="0"/>
+      <c r="AGT7" s="0"/>
+      <c r="AGU7" s="0"/>
+      <c r="AGV7" s="0"/>
+      <c r="AGW7" s="0"/>
+      <c r="AGX7" s="0"/>
+      <c r="AGY7" s="0"/>
+      <c r="AGZ7" s="0"/>
+      <c r="AHA7" s="0"/>
+      <c r="AHB7" s="0"/>
+      <c r="AHC7" s="0"/>
+      <c r="AHD7" s="0"/>
+      <c r="AHE7" s="0"/>
+      <c r="AHF7" s="0"/>
+      <c r="AHG7" s="0"/>
+      <c r="AHH7" s="0"/>
+      <c r="AHI7" s="0"/>
+      <c r="AHJ7" s="0"/>
+      <c r="AHK7" s="0"/>
+      <c r="AHL7" s="0"/>
+      <c r="AHM7" s="0"/>
+      <c r="AHN7" s="0"/>
+      <c r="AHO7" s="0"/>
+      <c r="AHP7" s="0"/>
+      <c r="AHQ7" s="0"/>
+      <c r="AHR7" s="0"/>
+      <c r="AHS7" s="0"/>
+      <c r="AHT7" s="0"/>
+      <c r="AHU7" s="0"/>
+      <c r="AHV7" s="0"/>
+      <c r="AHW7" s="0"/>
+      <c r="AHX7" s="0"/>
+      <c r="AHY7" s="0"/>
+      <c r="AHZ7" s="0"/>
+      <c r="AIA7" s="0"/>
+      <c r="AIB7" s="0"/>
+      <c r="AIC7" s="0"/>
+      <c r="AID7" s="0"/>
+      <c r="AIE7" s="0"/>
+      <c r="AIF7" s="0"/>
+      <c r="AIG7" s="0"/>
+      <c r="AIH7" s="0"/>
+      <c r="AII7" s="0"/>
+      <c r="AIJ7" s="0"/>
+      <c r="AIK7" s="0"/>
+      <c r="AIL7" s="0"/>
+      <c r="AIM7" s="0"/>
+      <c r="AIN7" s="0"/>
+      <c r="AIO7" s="0"/>
+      <c r="AIP7" s="0"/>
+      <c r="AIQ7" s="0"/>
+      <c r="AIR7" s="0"/>
+      <c r="AIS7" s="0"/>
+      <c r="AIT7" s="0"/>
+      <c r="AIU7" s="0"/>
+      <c r="AIV7" s="0"/>
+      <c r="AIW7" s="0"/>
+      <c r="AIX7" s="0"/>
+      <c r="AIY7" s="0"/>
+      <c r="AIZ7" s="0"/>
+      <c r="AJA7" s="0"/>
+      <c r="AJB7" s="0"/>
+      <c r="AJC7" s="0"/>
+      <c r="AJD7" s="0"/>
+      <c r="AJE7" s="0"/>
+      <c r="AJF7" s="0"/>
+      <c r="AJG7" s="0"/>
+      <c r="AJH7" s="0"/>
+      <c r="AJI7" s="0"/>
+      <c r="AJJ7" s="0"/>
+      <c r="AJK7" s="0"/>
+      <c r="AJL7" s="0"/>
+      <c r="AJM7" s="0"/>
+      <c r="AJN7" s="0"/>
+      <c r="AJO7" s="0"/>
+      <c r="AJP7" s="0"/>
+      <c r="AJQ7" s="0"/>
+      <c r="AJR7" s="0"/>
+      <c r="AJS7" s="0"/>
+      <c r="AJT7" s="0"/>
+      <c r="AJU7" s="0"/>
+      <c r="AJV7" s="0"/>
+      <c r="AJW7" s="0"/>
+      <c r="AJX7" s="0"/>
+      <c r="AJY7" s="0"/>
+      <c r="AJZ7" s="0"/>
+      <c r="AKA7" s="0"/>
+      <c r="AKB7" s="0"/>
+      <c r="AKC7" s="0"/>
+      <c r="AKD7" s="0"/>
+      <c r="AKE7" s="0"/>
+      <c r="AKF7" s="0"/>
+      <c r="AKG7" s="0"/>
+      <c r="AKH7" s="0"/>
+      <c r="AKI7" s="0"/>
+      <c r="AKJ7" s="0"/>
+      <c r="AKK7" s="0"/>
+      <c r="AKL7" s="0"/>
+      <c r="AKM7" s="0"/>
+      <c r="AKN7" s="0"/>
+      <c r="AKO7" s="0"/>
+      <c r="AKP7" s="0"/>
+      <c r="AKQ7" s="0"/>
+      <c r="AKR7" s="0"/>
+      <c r="AKS7" s="0"/>
+      <c r="AKT7" s="0"/>
+      <c r="AKU7" s="0"/>
+      <c r="AKV7" s="0"/>
+      <c r="AKW7" s="0"/>
+      <c r="AKX7" s="0"/>
+      <c r="AKY7" s="0"/>
+      <c r="AKZ7" s="0"/>
+      <c r="ALA7" s="0"/>
+      <c r="ALB7" s="0"/>
+      <c r="ALC7" s="0"/>
+      <c r="ALD7" s="0"/>
+      <c r="ALE7" s="0"/>
+      <c r="ALF7" s="0"/>
+      <c r="ALG7" s="0"/>
+      <c r="ALH7" s="0"/>
+      <c r="ALI7" s="0"/>
+      <c r="ALJ7" s="0"/>
+      <c r="ALK7" s="0"/>
+      <c r="ALL7" s="0"/>
+      <c r="ALM7" s="0"/>
+      <c r="ALN7" s="0"/>
+      <c r="ALO7" s="0"/>
+      <c r="ALP7" s="0"/>
+      <c r="ALQ7" s="0"/>
+      <c r="ALR7" s="0"/>
+      <c r="ALS7" s="0"/>
+      <c r="ALT7" s="0"/>
+      <c r="ALU7" s="0"/>
+      <c r="ALV7" s="0"/>
+      <c r="ALW7" s="0"/>
+      <c r="ALX7" s="0"/>
+      <c r="ALY7" s="0"/>
+      <c r="ALZ7" s="0"/>
+      <c r="AMA7" s="0"/>
+      <c r="AMB7" s="0"/>
+      <c r="AMC7" s="0"/>
+      <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
     </row>
     <row r="12" s="41" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMJ12" s="43"/>
@@ -35710,8 +36693,6 @@
     <hyperlink ref="C4" r:id="rId3" display="https://mapserver.bdl.lasy.gov.pl/ArcGIS/services/WMS_BDL/mapserver/WMSServer?"/>
     <hyperlink ref="C5" r:id="rId4" display="https://mapserver.bdl.lasy.gov.pl/ArcGIS/services/WMS_BDL/mapserver/WMSServer?"/>
     <hyperlink ref="C6" r:id="rId5" display="https://mapserver.bdl.lasy.gov.pl/ArcGIS/services/WMS_BDL/mapserver/WMSServer?"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://mapserver.bdl.lasy.gov.pl/ArcGIS/services/WMS_BDL/mapserver/WMSServer?"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://mapserver.bdl.lasy.gov.pl/ArcGIS/services/WMS_BDL/mapserver/WMSServer?"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -35730,17 +36711,17 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="46" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.3"/>
@@ -35751,8 +36732,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="15.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="18" style="3" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="47" width="11.52"/>
   </cols>
@@ -35765,49 +36746,49 @@
         <v>4</v>
       </c>
       <c r="C1" s="48" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>3528</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>3529</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G1" s="49" t="s">
         <v>3531</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="H1" s="7" t="s">
         <v>3532</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="I1" s="7" t="s">
         <v>3533</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="J1" s="50" t="s">
         <v>3534</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="K1" s="50" t="s">
         <v>3535</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="50" t="s">
         <v>3536</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="50" t="s">
         <v>3537</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="N1" s="50" t="s">
         <v>3538</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="O1" s="50" t="s">
         <v>3539</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="P1" s="50" t="s">
         <v>3540</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="Q1" s="50" t="s">
         <v>3541</v>
-      </c>
-      <c r="N1" s="50" t="s">
-        <v>3542</v>
-      </c>
-      <c r="O1" s="50" t="s">
-        <v>3543</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>3544</v>
-      </c>
-      <c r="Q1" s="50" t="s">
-        <v>3545</v>
       </c>
       <c r="AMH1" s="47"/>
       <c r="AMI1" s="47"/>
@@ -35818,19 +36799,19 @@
         <v>17</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>3544</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3545</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>3546</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>3547</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>3548</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3549</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>3550</v>
       </c>
       <c r="G2" s="16" t="n">
         <v>1</v>
@@ -35850,19 +36831,19 @@
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>3551</v>
+        <v>3547</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>3552</v>
+        <v>3548</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>3553</v>
+        <v>3549</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>3550</v>
+        <v>3546</v>
       </c>
       <c r="G3" s="16" t="n">
         <v>0</v>
@@ -35885,16 +36866,16 @@
         <v>3520</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>3552</v>
+        <v>3548</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>3554</v>
+        <v>3550</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>3550</v>
+        <v>3546</v>
       </c>
       <c r="G4" s="16" t="n">
         <v>0</v>
@@ -35911,22 +36892,22 @@
     </row>
     <row r="5" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>3555</v>
+        <v>3551</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>3522</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>3544</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>3552</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>3548</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>3556</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>3550</v>
+        <v>3546</v>
       </c>
       <c r="G5" s="16" t="n">
         <v>0</v>
@@ -35943,22 +36924,22 @@
     </row>
     <row r="6" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>3557</v>
+        <v>3553</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>3558</v>
+        <v>3554</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>3552</v>
+        <v>3548</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>3548</v>
+        <v>3544</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>3559</v>
+        <v>3555</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>3550</v>
+        <v>3546</v>
       </c>
       <c r="G6" s="16" t="n">
         <v>0</v>
@@ -35975,10 +36956,10 @@
     </row>
     <row r="7" s="16" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>3560</v>
+        <v>3556</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>3561</v>
+        <v>3557</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="16" t="n">
@@ -35988,25 +36969,25 @@
         <v>20</v>
       </c>
       <c r="K7" s="45" t="s">
+        <v>3558</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>3559</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>3560</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>3561</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>3562</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="P7" s="16" t="s">
         <v>3563</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="Q7" s="16" t="s">
         <v>3564</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>3565</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>3566</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>3567</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>3568</v>
       </c>
       <c r="AMH7" s="21"/>
       <c r="AMI7" s="21"/>

--- a/sample/data_1.xlsx
+++ b/sample/data_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="3565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="3568">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -10546,34 +10546,7 @@
     <t xml:space="preserve">https://{s}.tile.opentopomap.org/{z}/{x}/{y}.png</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Map data: &amp;copy; &lt;a href="https://www.openstreetmap.org/copyright"&gt;OpenStreetMap&lt;/a&gt; contributors, &lt;a href="http://viewfinderpanoramas.org"&gt;SRTM&lt;/a&gt; | Map style: &amp;copy; &lt;a href="https://opentopomap.org"&gt;OpenTopoMap&lt;/a&gt; (&lt;a href="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"&gt;CC-BY-SA&lt;/a&gt;)</t>
-    </r>
+    <t xml:space="preserve">Map data: &amp;copy; &lt;a href="https://www.openstreetmap.org/copyright"&gt;OpenStreetMap&lt;/a&gt; contributors, &lt;a href="http://viewfinderpanoramas.org"&gt;SRTM&lt;/a&gt; | Map style: &amp;copy; &lt;a href="https://opentopomap.org"&gt;OpenTopoMap&lt;/a&gt; (&lt;a href="https://creativecommons.org/licenses/by-sa/3.0/"&gt;CC-BY-SA&lt;/a&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">osm</t>
@@ -10699,25 +10672,34 @@
     <t xml:space="preserve">Dyrekcja regionalna</t>
   </si>
   <si>
+    <t xml:space="preserve">building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punkty</t>
+  </si>
+  <si>
     <t xml:space="preserve">circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punkty</t>
   </si>
   <si>
     <t xml:space="preserve">black</t>
@@ -11301,9 +11283,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="4" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="6" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="4" width="35.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="65.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="3" width="65.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="181.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="18" style="3" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="3" width="11.54"/>
@@ -35356,7 +35338,7 @@
       <c r="F2" s="41" t="n">
         <v>17</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="42" t="s">
         <v>3506</v>
       </c>
       <c r="AMJ2" s="43"/>
@@ -35413,7 +35395,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://creativecommons.org/licenses/by-sa/3.0/"/>
+    <hyperlink ref="G2" r:id="rId1" display="Map data: &amp;copy; &lt;a href=&quot;https://www.openstreetmap.org/copyright&quot;&gt;OpenStreetMap&lt;/a&gt; contributors, &lt;a href=&quot;http://viewfinderpanoramas.org&quot;&gt;SRTM&lt;/a&gt; | Map style: &amp;copy; &lt;a href=&quot;https://opentopomap.org&quot;&gt;OpenTopoMap&lt;/a&gt; (&lt;a href=&quot;https://creativecommons.org/licenses/by-sa/3.0/&quot;&gt;CC-BY-SA&lt;/a&gt;)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -35432,15 +35414,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="32.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="80.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="40" width="32.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="80.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="40" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="40" width="13.24"/>
@@ -36711,17 +36693,17 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="46" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.3"/>
@@ -36866,13 +36848,13 @@
         <v>3520</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>3548</v>
+        <v>3550</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>3544</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>3546</v>
@@ -36892,19 +36874,19 @@
     </row>
     <row r="5" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>3522</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>3548</v>
+        <v>3553</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>3544</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>3552</v>
+        <v>3554</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>3546</v>
@@ -36924,19 +36906,19 @@
     </row>
     <row r="6" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>3553</v>
+        <v>3555</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>3554</v>
+        <v>3556</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>3548</v>
+        <v>3557</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>3544</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>3546</v>
@@ -36956,10 +36938,10 @@
     </row>
     <row r="7" s="16" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>3556</v>
+        <v>3559</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>3557</v>
+        <v>3560</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="16" t="n">
@@ -36969,25 +36951,25 @@
         <v>20</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>3562</v>
+        <v>3565</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>3564</v>
+        <v>3567</v>
       </c>
       <c r="AMH7" s="21"/>
       <c r="AMI7" s="21"/>
